--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/45.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/45.xlsx
@@ -479,13 +479,13 @@
         <v>-12.63782297724742</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.16414620461159</v>
+        <v>-14.1668170343913</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.515564507443423</v>
+        <v>-0.5133257236574877</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.46246777605049</v>
+        <v>-10.4660157901206</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.25282318945351</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.37079511266539</v>
+        <v>-14.37319100408543</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5073294489559772</v>
+        <v>-0.5048026345075241</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.21642412874593</v>
+        <v>-10.21973648136488</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-11.86615062277787</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.68683021096182</v>
+        <v>-14.68946176383301</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4291029394766639</v>
+        <v>-0.4267856018736785</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.79288813181609</v>
+        <v>-9.796488515097565</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-11.49723803889119</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.14482514897108</v>
+        <v>-15.1477185478991</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3699911921462707</v>
+        <v>-0.3673203623665586</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.57542498161502</v>
+        <v>-9.579195564833437</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-11.11926303255579</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.589282645842</v>
+        <v>-15.59237242931265</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3532199522060196</v>
+        <v>-0.3506800454547248</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.385206913627583</v>
+        <v>-9.389121512177258</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-10.7278136264686</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06325019331817</v>
+        <v>-16.06682439199396</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3729631448913426</v>
+        <v>-0.3696507922723859</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.244124258205142</v>
+        <v>-9.248012672149136</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-10.30792932528496</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.56676706830811</v>
+        <v>-16.57074712837199</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1545049796743014</v>
+        <v>-0.1515330269292296</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.041848179300475</v>
+        <v>-9.045710408638783</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-9.841011940403178</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.18791828433096</v>
+        <v>-17.19242203650851</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04516573096486286</v>
+        <v>0.04853045279518645</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.065231032175797</v>
+        <v>-9.069158723028314</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.314325012924861</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.60924168208055</v>
+        <v>-17.6140596495263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1706423613999655</v>
+        <v>0.1735881295393538</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.751473994573832</v>
+        <v>-8.755244577792249</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-8.733990712063166</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.13803979385786</v>
+        <v>-18.14323743808603</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2965117609203199</v>
+        <v>0.2994575290597083</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.674281777019015</v>
+        <v>-8.678209467871532</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-8.10408662550344</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.65929673919834</v>
+        <v>-18.66462530645493</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3776840385390215</v>
+        <v>0.3810225757636617</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.172388347581446</v>
+        <v>-8.176355315342489</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.429710882975299</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.42003808811968</v>
+        <v>-19.4256285014331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5134512190077208</v>
+        <v>0.5170254176835121</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.580891197495104</v>
+        <v>-7.585355672764133</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-6.739322335084785</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.24508882859957</v>
+        <v>-20.25070542651867</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7525821304118475</v>
+        <v>0.7565621904757323</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.002433981039122</v>
+        <v>-7.007513794541711</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-6.051189510542262</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.04043313393159</v>
+        <v>-21.04619374718195</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8329426852543621</v>
+        <v>0.8370929452551893</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.454638937838461</v>
+        <v>-6.460255535757561</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.378453865254718</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.92912555852511</v>
+        <v>-21.93472906414137</v>
       </c>
       <c r="F16" t="n">
-        <v>1.07814842517705</v>
+        <v>1.082455792811978</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.957183799064238</v>
+        <v>-5.962394535595244</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-4.741347236833326</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.56893330609742</v>
+        <v>-22.57440588868527</v>
       </c>
       <c r="F17" t="n">
-        <v>1.255234913414236</v>
+        <v>1.259607742563373</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.835137351973667</v>
+        <v>-5.840531380744458</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-4.152812427672114</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.34945712461261</v>
+        <v>-23.35508681483455</v>
       </c>
       <c r="F18" t="n">
-        <v>1.576860425024079</v>
+        <v>1.581704577075518</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.437131345585194</v>
+        <v>-5.442499189750302</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.615532358356962</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.14791739802095</v>
+        <v>-24.15380893429973</v>
       </c>
       <c r="F19" t="n">
-        <v>1.827839870499968</v>
+        <v>1.832762576368457</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.184607008373982</v>
+        <v>-5.189739191087939</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.130806914084196</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.89954650416445</v>
+        <v>-24.90543804044323</v>
       </c>
       <c r="F20" t="n">
-        <v>2.052006279756001</v>
+        <v>2.056902801018807</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.946641311922769</v>
+        <v>-4.952388832870287</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-2.705784825909966</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.47874998188241</v>
+        <v>-25.48466770276687</v>
       </c>
       <c r="F21" t="n">
-        <v>2.407645594148649</v>
+        <v>2.41235882317167</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.692964852061484</v>
+        <v>-4.698319603923751</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-2.339523731729929</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.05524335291213</v>
+        <v>-26.06121344300796</v>
       </c>
       <c r="F22" t="n">
-        <v>2.697771025121298</v>
+        <v>2.702065300453384</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.403965359133223</v>
+        <v>-4.410040187651784</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-2.026781292270089</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.55641670569341</v>
+        <v>-26.5621249497324</v>
       </c>
       <c r="F23" t="n">
-        <v>2.894417413804024</v>
+        <v>2.898633135319059</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.251662600175425</v>
+        <v>-4.257514859545676</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.772204114023461</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.77186364125685</v>
+        <v>-26.77763734681005</v>
       </c>
       <c r="F24" t="n">
-        <v>3.020889059255098</v>
+        <v>3.0251571499815</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.072311143546619</v>
+        <v>-4.078241956733921</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.573119150340796</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.07652152838382</v>
+        <v>-27.08209884939439</v>
       </c>
       <c r="F25" t="n">
-        <v>3.327694084048106</v>
+        <v>3.332014543985876</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.818425206839867</v>
+        <v>-3.824159635484543</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.423214419376753</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.04448466333011</v>
+        <v>-27.05002270743216</v>
       </c>
       <c r="F26" t="n">
-        <v>3.406562116366664</v>
+        <v>3.411275345389686</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.778166375601559</v>
+        <v>-3.784110281091703</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-1.319598350522482</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.97434919700699</v>
+        <v>-26.97970394886925</v>
       </c>
       <c r="F27" t="n">
-        <v>3.418188081290117</v>
+        <v>3.42261327965062</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.721869473382137</v>
+        <v>-3.727184948335878</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-1.260578072179694</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.88780907522318</v>
+        <v>-26.89333402702239</v>
       </c>
       <c r="F28" t="n">
-        <v>3.482287996003207</v>
+        <v>3.486320425278459</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.720992289091742</v>
+        <v>-3.725888810354547</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-1.241654409277419</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.7438592054784</v>
+        <v>-26.74904375740372</v>
       </c>
       <c r="F29" t="n">
-        <v>3.493311714995941</v>
+        <v>3.497213221242775</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.647282624092824</v>
+        <v>-3.65195657620732</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-1.256871720200386</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.62848983283711</v>
+        <v>-26.63351727712833</v>
       </c>
       <c r="F30" t="n">
-        <v>3.46660341719882</v>
+        <v>3.470164523571769</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.606853592917573</v>
+        <v>-3.611488268123545</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-1.306771379242095</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22465775168407</v>
+        <v>-26.22947571912982</v>
       </c>
       <c r="F31" t="n">
-        <v>3.361262748534292</v>
+        <v>3.364614378061773</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.795762430620839</v>
+        <v>-3.799925782924508</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-1.38836809468599</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.89292498228041</v>
+        <v>-25.8975334728807</v>
       </c>
       <c r="F32" t="n">
-        <v>3.313580581584725</v>
+        <v>3.31672273426674</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.885745828052022</v>
+        <v>-3.889856811144324</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-1.495786352024359</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47395819904234</v>
+        <v>-25.47856668964263</v>
       </c>
       <c r="F33" t="n">
-        <v>3.193262318469263</v>
+        <v>3.196378286545594</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.036883372056908</v>
+        <v>-4.03993387861903</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.626365999570814</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.01809730639628</v>
+        <v>-25.02254868936247</v>
       </c>
       <c r="F34" t="n">
-        <v>3.112875579021065</v>
+        <v>3.115755885646244</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.956601371031444</v>
+        <v>-3.95915437008558</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.778197078148572</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.66304714563151</v>
+        <v>-24.66723668254086</v>
       </c>
       <c r="F35" t="n">
-        <v>2.858937273102946</v>
+        <v>2.861869948939493</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.055395888275108</v>
+        <v>-4.057490656729785</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.947968859446016</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.9684873875751</v>
+        <v>-23.97270310909013</v>
       </c>
       <c r="F36" t="n">
-        <v>2.738645194593167</v>
+        <v>2.741106547527411</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.371653555719844</v>
+        <v>-4.37352575502621</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-2.131820338995879</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.53839214692156</v>
+        <v>-23.54238529928828</v>
       </c>
       <c r="F37" t="n">
-        <v>2.583579959735763</v>
+        <v>2.586172235698425</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.449277819268437</v>
+        <v>-4.450731064883869</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.331848107683983</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16456762388175</v>
+        <v>-23.16835129940301</v>
       </c>
       <c r="F38" t="n">
-        <v>2.526078565654903</v>
+        <v>2.528566103194831</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.555849164400088</v>
+        <v>-4.557498794558145</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.548440922770543</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.68806016965429</v>
+        <v>-22.69172601444997</v>
       </c>
       <c r="F39" t="n">
-        <v>2.486068488170587</v>
+        <v>2.488634579527566</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.489300989055594</v>
+        <v>-4.49063640394545</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.777390401234707</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.32895139500858</v>
+        <v>-22.33249940907869</v>
       </c>
       <c r="F40" t="n">
-        <v>2.468891386842243</v>
+        <v>2.471954985707207</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.543359107489081</v>
+        <v>-4.544354122505052</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.019975890434557</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.81354670903836</v>
+        <v>-21.81702926159425</v>
       </c>
       <c r="F41" t="n">
-        <v>2.553415293988426</v>
+        <v>2.556164677585189</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.474637609872861</v>
+        <v>-4.47561953258599</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.275048788665742</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.19606133781119</v>
+        <v>-21.19924276740172</v>
       </c>
       <c r="F42" t="n">
-        <v>2.679022847451946</v>
+        <v>2.681615123414608</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.485766067288328</v>
+        <v>-4.486826543818507</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.536646426740998</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54445742537848</v>
+        <v>-20.54758648575765</v>
       </c>
       <c r="F43" t="n">
-        <v>2.789757544887265</v>
+        <v>2.792402190061294</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.479573408044192</v>
+        <v>-4.480882638328364</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.799916886601443</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.29106899617971</v>
+        <v>-20.29402785662194</v>
       </c>
       <c r="F44" t="n">
-        <v>2.740216270934174</v>
+        <v>2.742625254657052</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.563351053928397</v>
+        <v>-4.564503176578468</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.064034219810967</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.8530136353984</v>
+        <v>-19.85573683438948</v>
       </c>
       <c r="F45" t="n">
-        <v>2.817120457826473</v>
+        <v>2.819765103000502</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.547038044587606</v>
+        <v>-4.548006874997894</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.325582220883794</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.50037245835651</v>
+        <v>-19.50321348807316</v>
       </c>
       <c r="F46" t="n">
-        <v>2.858518319412011</v>
+        <v>2.861136779980356</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.650938559939544</v>
+        <v>-4.651292052116271</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.577762015553144</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.01913868280318</v>
+        <v>-19.02167858955448</v>
       </c>
       <c r="F47" t="n">
-        <v>2.891091968882225</v>
+        <v>2.893579506422153</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962797213629459</v>
+        <v>-4.962941228960718</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.82350312632351</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.5632385132486</v>
+        <v>-18.56568677388</v>
       </c>
       <c r="F48" t="n">
-        <v>2.857156719916471</v>
+        <v>2.859460965216615</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089255766777691</v>
+        <v>-5.089334320594741</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.062645352081946</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09259641069423</v>
+        <v>-18.09545053271373</v>
       </c>
       <c r="F49" t="n">
-        <v>2.886064524591002</v>
+        <v>2.888316400679779</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.341701550171853</v>
+        <v>-5.341963396228688</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.289329688490401</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60541872965076</v>
+        <v>-17.60814192864184</v>
       </c>
       <c r="F50" t="n">
-        <v>2.937569643970353</v>
+        <v>2.940266658355748</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.433570239212245</v>
+        <v>-5.432967993281525</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-5.506219096900065</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.91517943153212</v>
+        <v>-16.91802046124878</v>
       </c>
       <c r="F51" t="n">
-        <v>2.914998513871217</v>
+        <v>2.91790500510208</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.650496604996804</v>
+        <v>-5.649868174460401</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-5.714846747393408</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.53941724767174</v>
+        <v>-16.54217972357135</v>
       </c>
       <c r="F52" t="n">
-        <v>2.796225142491078</v>
+        <v>2.798869787665107</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793818044205179</v>
+        <v>-5.793922782627913</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-5.911530883300172</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11567177389644</v>
+        <v>-16.11860444973298</v>
       </c>
       <c r="F53" t="n">
-        <v>2.865012101621507</v>
+        <v>2.867473454555751</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852785776204314</v>
+        <v>-5.85275959159863</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.093520671420394</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.83973839920422</v>
+        <v>-15.84306384412602</v>
       </c>
       <c r="F54" t="n">
-        <v>2.622306991541589</v>
+        <v>2.6246636060531</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.087504581550778</v>
+        <v>-6.087177273979735</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.263078689499256</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.50203553970474</v>
+        <v>-15.50558355377484</v>
       </c>
       <c r="F55" t="n">
-        <v>2.460721789869006</v>
+        <v>2.463130773591883</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.301917225189726</v>
+        <v>-6.301249517744798</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-6.417604517033769</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.09495656744695</v>
+        <v>-15.09889735060231</v>
       </c>
       <c r="F56" t="n">
-        <v>2.40576030253944</v>
+        <v>2.408195470868001</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498144660181516</v>
+        <v>-6.498039921758783</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.548550526360433</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.55484670601438</v>
+        <v>-14.55874821226121</v>
       </c>
       <c r="F57" t="n">
-        <v>2.361298842088938</v>
+        <v>2.364126779502751</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765214545849886</v>
+        <v>-6.765057438215786</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.659839672442938</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.30454806028626</v>
+        <v>-14.30869832028709</v>
       </c>
       <c r="F58" t="n">
-        <v>2.182929308173262</v>
+        <v>2.185861984009809</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721892115746615</v>
+        <v>-6.721826654232407</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.749818215159075</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.92857639958041</v>
+        <v>-13.9328706749125</v>
       </c>
       <c r="F59" t="n">
-        <v>2.232915720422972</v>
+        <v>2.236214980739087</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859099449527904</v>
+        <v>-6.858903064985278</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.811502267722238</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.8154589030279</v>
+        <v>-13.82002811671966</v>
       </c>
       <c r="F60" t="n">
-        <v>2.05229431041852</v>
+        <v>2.055593570734634</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.82136743273805</v>
+        <v>-6.821380525040891</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.848159165279482</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.48720868618014</v>
+        <v>-13.49169934605486</v>
       </c>
       <c r="F61" t="n">
-        <v>1.930562078596151</v>
+        <v>1.933913708123632</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.150678126115985</v>
+        <v>-7.151083987504079</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.862306505953029</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.185129982713</v>
+        <v>-13.19010505779285</v>
       </c>
       <c r="F62" t="n">
-        <v>1.851248907980974</v>
+        <v>1.854757645142556</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.193044818111812</v>
+        <v>-7.19296626429476</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.851649383294466</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.85766530403574</v>
+        <v>-12.86267965602413</v>
       </c>
       <c r="F63" t="n">
-        <v>1.782854717935797</v>
+        <v>1.786337270491696</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.312708466085187</v>
+        <v>-7.313022681353389</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.815756562332234</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.61342839452335</v>
+        <v>-12.6187176848714</v>
       </c>
       <c r="F64" t="n">
-        <v>1.666804545546737</v>
+        <v>1.670418021131054</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.498501335712122</v>
+        <v>-7.497990735901295</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.760010150607189</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.40126762697317</v>
+        <v>-12.40667474804681</v>
       </c>
       <c r="F65" t="n">
-        <v>1.591942757897747</v>
+        <v>1.594718326100193</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730274372919198</v>
+        <v>-7.730339834433408</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.68384148208572</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.16499083758854</v>
+        <v>-12.17050269708491</v>
       </c>
       <c r="F66" t="n">
-        <v>1.522920137316168</v>
+        <v>1.525721890124297</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.852111343164301</v>
+        <v>-7.851784035593258</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.580963030940755</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.98421231994999</v>
+        <v>-11.98977654865772</v>
       </c>
       <c r="F67" t="n">
-        <v>1.570942704139619</v>
+        <v>1.574844210386453</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.815675464355778</v>
+        <v>-7.815911125806929</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.45613887040717</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.89336483053125</v>
+        <v>-11.89913853608446</v>
       </c>
       <c r="F68" t="n">
-        <v>1.434180508654948</v>
+        <v>1.437348845942646</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.829749689910633</v>
+        <v>-7.82942238233959</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.307077203287055</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.74445297800946</v>
+        <v>-11.75026596047119</v>
       </c>
       <c r="F69" t="n">
-        <v>1.320853535256967</v>
+        <v>1.324885964532219</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.902346509168004</v>
+        <v>-7.902019201596961</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.127259778037033</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.64331493855713</v>
+        <v>-11.64952069010411</v>
       </c>
       <c r="F70" t="n">
-        <v>1.368404779178117</v>
+        <v>1.372175362396534</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.844282146064949</v>
+        <v>-7.843797730859805</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-5.920069989006773</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.37608794525466</v>
+        <v>-11.38209731225901</v>
       </c>
       <c r="F71" t="n">
-        <v>1.306844771216321</v>
+        <v>1.310693908251788</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.701274922124775</v>
+        <v>-7.700057337960495</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-5.688826198644467</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.32010525830344</v>
+        <v>-11.32604916379358</v>
       </c>
       <c r="F72" t="n">
-        <v>1.359004505737757</v>
+        <v>1.362644165927757</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.703618444333444</v>
+        <v>-7.702701983134523</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-5.433688965712186</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.29554409817236</v>
+        <v>-11.30004785034991</v>
       </c>
       <c r="F73" t="n">
-        <v>1.332243838729269</v>
+        <v>1.335909683524952</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.588379994720571</v>
+        <v>-7.586717272259673</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-5.157846406372336</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.49103836420501</v>
+        <v>-11.49558139329109</v>
       </c>
       <c r="F74" t="n">
-        <v>1.3795070519879</v>
+        <v>1.383041973755166</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.473796160249785</v>
+        <v>-7.472447653057087</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.870452450237372</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.61960477811076</v>
+        <v>-11.62417399180252</v>
       </c>
       <c r="F75" t="n">
-        <v>1.311374707999558</v>
+        <v>1.314909629766824</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.343134977889359</v>
+        <v>-7.342087593662021</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.57596787426067</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.95766112978697</v>
+        <v>-11.96182448209064</v>
       </c>
       <c r="F76" t="n">
-        <v>1.337506944471643</v>
+        <v>1.340832389393442</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.14850480384426</v>
+        <v>-7.146698066052101</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.274974293411323</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.57047254889964</v>
+        <v>-12.57445260896353</v>
       </c>
       <c r="F77" t="n">
-        <v>1.311296154182507</v>
+        <v>1.314700152921356</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.976524313715346</v>
+        <v>-6.975293637248224</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.978781002403456</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.10038350641851</v>
+        <v>-13.10418027424261</v>
       </c>
       <c r="F78" t="n">
-        <v>1.339130390024017</v>
+        <v>1.342665311791283</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.838636180186286</v>
+        <v>-6.838164857283984</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.69247154289521</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.59594026128068</v>
+        <v>-13.59969775219625</v>
       </c>
       <c r="F79" t="n">
-        <v>1.398909844799338</v>
+        <v>1.402366212749554</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662911291444639</v>
+        <v>-6.662819645324747</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.417669507121517</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15419605445188</v>
+        <v>-14.15790117615609</v>
       </c>
       <c r="F80" t="n">
-        <v>1.386445972494015</v>
+        <v>1.389404832936245</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.396666220855298</v>
+        <v>-6.39615562104447</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.161676747066156</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.93860828691105</v>
+        <v>-14.9422610394039</v>
       </c>
       <c r="F81" t="n">
-        <v>1.448660595597897</v>
+        <v>1.451802748279912</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280746971494655</v>
+        <v>-6.280524402346346</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.930037828415069</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.69297368434847</v>
+        <v>-15.69650860611574</v>
       </c>
       <c r="F82" t="n">
-        <v>1.482386367718184</v>
+        <v>1.485214305131997</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.195804110657536</v>
+        <v>-6.195502987692177</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.723559465014441</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.56163488559415</v>
+        <v>-16.56520908426994</v>
       </c>
       <c r="F83" t="n">
-        <v>1.438422414775668</v>
+        <v>1.441381275217898</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.936105191489058</v>
+        <v>-5.935620776283915</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-2.542277763193962</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.63244124271608</v>
+        <v>-17.63592379527199</v>
       </c>
       <c r="F84" t="n">
-        <v>1.523155798767319</v>
+        <v>1.525748074729981</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747562938265361</v>
+        <v>-5.747471292145469</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-2.390351700908265</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44455678798835</v>
+        <v>-18.44797387903004</v>
       </c>
       <c r="F85" t="n">
-        <v>1.514462509680413</v>
+        <v>1.517238077882858</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539630984533068</v>
+        <v>-5.539879738287061</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-2.266403615860769</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.53167615445108</v>
+        <v>-19.53539436845813</v>
       </c>
       <c r="F86" t="n">
-        <v>1.510142049742643</v>
+        <v>1.512891433339405</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242749925294087</v>
+        <v>-5.242789202202613</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.165209472761041</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.59098746967797</v>
+        <v>-20.59474496059355</v>
       </c>
       <c r="F87" t="n">
-        <v>1.53438899460552</v>
+        <v>1.536117178580628</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.971254841265214</v>
+        <v>-4.970862072179962</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.088143807319906</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.9534379649022</v>
+        <v>-21.95709071739504</v>
       </c>
       <c r="F88" t="n">
-        <v>1.586260698464438</v>
+        <v>1.588224543890697</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659906787386126</v>
+        <v>-4.659919879688968</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.032601959622744</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.42075780588865</v>
+        <v>-23.42399160469055</v>
       </c>
       <c r="F89" t="n">
-        <v>1.379219021325382</v>
+        <v>1.381523266625526</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320541205425745</v>
+        <v>-4.320331728580277</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-1.993377518570514</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.90954902353553</v>
+        <v>-24.91266499161186</v>
       </c>
       <c r="F90" t="n">
-        <v>1.230857045522942</v>
+        <v>1.232847075554885</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.12678821567104</v>
+        <v>-4.126971507910825</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.967464571954663</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56360437995351</v>
+        <v>-26.56668107112132</v>
       </c>
       <c r="F91" t="n">
-        <v>1.066024952745611</v>
+        <v>1.067805505932086</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088139737682265</v>
+        <v>-4.08802190695669</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.951865402271979</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26519788798981</v>
+        <v>-28.26772470243826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9815272302051112</v>
+        <v>0.9831244911518018</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.842357936434542</v>
+        <v>-3.842109182680549</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.940531945080577</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15868527877728</v>
+        <v>-30.16100261638027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.85856432191562</v>
+        <v>0.8600830290452602</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.884462782373533</v>
+        <v>-3.883965274865548</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.926118000062637</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.30038963914104</v>
+        <v>-32.30237966917299</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7674418941372065</v>
+        <v>0.7688427705412713</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.922142429952021</v>
+        <v>-3.921422353295726</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.904820384920297</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39263127936876</v>
+        <v>-34.39432018643534</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3563174003013246</v>
+        <v>0.3577575536139145</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.92608321310738</v>
+        <v>-3.925271490331193</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.869537508016482</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41124180841461</v>
+        <v>-36.41269505403005</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07561842737471769</v>
+        <v>0.07734661134982553</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.102515086202481</v>
+        <v>-4.101886655666078</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.814376331714827</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54558829458132</v>
+        <v>-38.5468058787456</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.251257097674657</v>
+        <v>-0.2498169443620672</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.189238500226074</v>
+        <v>-4.188151839090211</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-1.734803835827748</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.8910612563737</v>
+        <v>-40.89167659460726</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5145956770331352</v>
+        <v>-0.5128805853608691</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.395835039068512</v>
+        <v>-4.394722193326965</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-1.630937536034317</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31533678897043</v>
+        <v>-43.31571646575285</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4312369848398653</v>
+        <v>-0.4295349854704409</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.715339597617994</v>
+        <v>-4.714279121087815</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-1.496406916485005</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79970599161069</v>
+        <v>-45.79969289930785</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5754356083386363</v>
+        <v>-0.5743620395056147</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.960100199244064</v>
+        <v>-4.958725507445682</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.339147294521088</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20277199360383</v>
+        <v>-48.2027327166953</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6021439061357574</v>
+        <v>-0.6006121067032755</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.317912835908436</v>
+        <v>-5.316132282721962</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.150894635105541</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49476289828776</v>
+        <v>-50.49434394459683</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7260756448355363</v>
+        <v>-0.72466167612863</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.636775871618675</v>
+        <v>-5.635191702974827</v>
       </c>
     </row>
   </sheetData>
